--- a/doc/Docs/Products/IoTMS_TimeLog_001.xlsx
+++ b/doc/Docs/Products/IoTMS_TimeLog_001.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="192" yWindow="96" windowWidth="20736" windowHeight="11760"/>
+    <workbookView xWindow="195" yWindow="90" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="EVM" sheetId="6" r:id="rId1"/>
     <sheet name="WBS" sheetId="5" r:id="rId2"/>
     <sheet name="time log" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -1242,14 +1242,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="yy&quot;-&quot;m&quot;-&quot;d\ h:mm;@"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="178" formatCode="mm&quot;/&quot;dd"/>
     <numFmt numFmtId="179" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1834,12 +1834,24 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2175,6 +2187,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2514,13 +2527,24 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="104560512"/>
-        <c:axId val="104562048"/>
+        <c:smooth val="0"/>
+        <c:axId val="111684224"/>
+        <c:axId val="111718784"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
@@ -2856,42 +2880,58 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="104581760"/>
-        <c:axId val="104580224"/>
+        <c:smooth val="0"/>
+        <c:axId val="111721856"/>
+        <c:axId val="111720320"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="104560512"/>
+        <c:axId val="111684224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="mm&quot;/&quot;dd" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104562048"/>
+        <c:crossAx val="111718784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="104562048"/>
+        <c:axId val="111718784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000"/>
           <c:min val="0"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104560512"/>
+        <c:crossAx val="111684224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="104580224"/>
+        <c:axId val="111720320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="170"/>
@@ -2900,21 +2940,25 @@
         <c:delete val="1"/>
         <c:axPos val="r"/>
         <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="104581760"/>
+        <c:crossAx val="111721856"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="104581760"/>
+        <c:axId val="111721856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="mm&quot;/&quot;dd" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="104580224"/>
+        <c:crossAx val="111720320"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2924,6 +2968,7 @@
     <c:legend>
       <c:legendPos val="t"/>
       <c:layout/>
+      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -2937,6 +2982,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2978,6 +3024,1628 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>188346</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>70011</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>606597</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>99566</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="타원 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="20316347">
+          <a:off x="14195699" y="2624952"/>
+          <a:ext cx="2468927" cy="455379"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050">
+            <a:alpha val="25000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="x-none"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="1">
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>gap C</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:prstClr val="black"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>677656</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>158512</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>57526</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>22884</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="타원 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="20796658">
+          <a:off x="11267215" y="3778012"/>
+          <a:ext cx="1430546" cy="290196"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000">
+            <a:alpha val="25000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="x-none"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="1">
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>gap A</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:prstClr val="black"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>553802</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>81347</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>662243</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>48436</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="타원 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7042008" y="2210465"/>
+          <a:ext cx="792000" cy="180000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="x-none"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1">
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>gap C              </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:prstClr val="black"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>547447</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>55117</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>655888</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>22205</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="타원 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7035653" y="1758411"/>
+          <a:ext cx="792000" cy="180000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000">
+            <a:alpha val="25000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="x-none"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1">
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>gap A</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:prstClr val="black"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>649107</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>51150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>220162</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>102799</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="TextBox 50"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7820872" y="2180268"/>
+          <a:ext cx="3672408" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="x-none"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:sym typeface="Wingdings" pitchFamily="2" charset="2"/>
+            </a:rPr>
+            <a:t></a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Put the more resource to experiment &amp; implementation.</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:prstClr val="black"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>649107</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19093</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>40660</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>70741</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="TextBox 51"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7820872" y="1722387"/>
+          <a:ext cx="4176464" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="x-none"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:sym typeface="Wingdings" pitchFamily="2" charset="2"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Long discussion and late decision about architecture design.</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:prstClr val="black"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>159018</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>65284</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>495052</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>67504</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="타원 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="20425121">
+          <a:off x="12799253" y="3684784"/>
+          <a:ext cx="1703152" cy="215132"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="50000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="x-none"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="1">
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>gap B</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:prstClr val="black"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>550152</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>65397</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>658593</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>32485</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="타원 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7038358" y="1981603"/>
+          <a:ext cx="792000" cy="180000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="50000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="x-none"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" b="1">
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>gap B              </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:prstClr val="black"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>639533</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>25626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>390091</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>77274</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="TextBox 54"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7811298" y="1941832"/>
+          <a:ext cx="3168352" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="x-none"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:sym typeface="Wingdings" pitchFamily="2" charset="2"/>
+            </a:rPr>
+            <a:t></a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Underestimate workload.</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:prstClr val="black"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>561825</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>168089</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>526338</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19265</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="TextBox 74"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6366472" y="1232648"/>
+          <a:ext cx="648072" cy="276999"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="x-none"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="1">
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>hour</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:prstClr val="black"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3058,6 +4726,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3092,6 +4761,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3267,26 +4937,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA34" sqref="AA34"/>
+    <sheetView tabSelected="1" topLeftCell="G4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z19" sqref="Z19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.8984375" customWidth="1"/>
-    <col min="5" max="5" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.59765625" customWidth="1"/>
-    <col min="8" max="8" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.625" customWidth="1"/>
+    <col min="8" max="8" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="78" t="s">
         <v>248</v>
       </c>
@@ -3302,7 +4972,7 @@
       <c r="G1" s="78"/>
       <c r="H1" s="78"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="78"/>
       <c r="B2" s="63" t="s">
         <v>22</v>
@@ -3326,7 +4996,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="55">
         <v>42131</v>
       </c>
@@ -3356,7 +5026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="55">
         <v>42132</v>
       </c>
@@ -3386,7 +5056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="55">
         <v>42133</v>
       </c>
@@ -3416,7 +5086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="55">
         <v>42134</v>
       </c>
@@ -3446,7 +5116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="55">
         <v>42135</v>
       </c>
@@ -3476,7 +5146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="55">
         <v>42136</v>
       </c>
@@ -3506,7 +5176,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="55">
         <v>42137</v>
       </c>
@@ -3536,7 +5206,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="55">
         <v>42138</v>
       </c>
@@ -3566,7 +5236,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="55">
         <v>42139</v>
       </c>
@@ -3596,7 +5266,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="55">
         <v>42140</v>
       </c>
@@ -3626,7 +5296,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="55">
         <v>42141</v>
       </c>
@@ -3656,7 +5326,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="55">
         <v>42142</v>
       </c>
@@ -3686,7 +5356,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="55">
         <v>42143</v>
       </c>
@@ -3716,7 +5386,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="55">
         <v>42144</v>
       </c>
@@ -3746,7 +5416,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="55">
         <v>42145</v>
       </c>
@@ -3776,7 +5446,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="55">
         <v>42146</v>
       </c>
@@ -3806,7 +5476,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="55">
         <v>42147</v>
       </c>
@@ -3836,7 +5506,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="55">
         <v>42148</v>
       </c>
@@ -3866,7 +5536,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="55">
         <v>42149</v>
       </c>
@@ -3896,7 +5566,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="55">
         <v>42150</v>
       </c>
@@ -3926,7 +5596,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="55">
         <v>42151</v>
       </c>
@@ -3956,7 +5626,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="55">
         <v>42152</v>
       </c>
@@ -3986,7 +5656,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="55">
         <v>42153</v>
       </c>
@@ -4016,7 +5686,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="55">
         <v>42154</v>
       </c>
@@ -4046,7 +5716,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="55">
         <v>42155</v>
       </c>
@@ -4076,7 +5746,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="55">
         <v>42156</v>
       </c>
@@ -4106,7 +5776,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="55">
         <v>42157</v>
       </c>
@@ -4136,7 +5806,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="55">
         <v>42158</v>
       </c>
@@ -4168,7 +5838,7 @@
       <c r="L30" s="76"/>
       <c r="M30" s="77"/>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="55">
         <v>42159</v>
       </c>
@@ -4200,7 +5870,7 @@
       <c r="L31" s="76"/>
       <c r="M31" s="77"/>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="55">
         <v>42160</v>
       </c>
@@ -4232,7 +5902,7 @@
       <c r="L32" s="76"/>
       <c r="M32" s="77"/>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="55">
         <v>42161</v>
       </c>
@@ -4264,7 +5934,7 @@
       <c r="L33" s="76"/>
       <c r="M33" s="77"/>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="55">
         <v>42162</v>
       </c>
@@ -4296,7 +5966,7 @@
       <c r="L34" s="76"/>
       <c r="M34" s="77"/>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="55">
         <v>42163</v>
       </c>
@@ -4328,7 +5998,7 @@
       <c r="L35" s="76"/>
       <c r="M35" s="77"/>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="55">
         <v>42164</v>
       </c>
@@ -4360,7 +6030,7 @@
       <c r="L36" s="76"/>
       <c r="M36" s="77"/>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="55">
         <v>42165</v>
       </c>
@@ -4392,7 +6062,7 @@
       <c r="L37" s="76"/>
       <c r="M37" s="77"/>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="55">
         <v>42166</v>
       </c>
@@ -4424,7 +6094,7 @@
       <c r="L38" s="76"/>
       <c r="M38" s="77"/>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="55">
         <v>42167</v>
       </c>
@@ -4456,7 +6126,7 @@
       <c r="L39" s="76"/>
       <c r="M39" s="77"/>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="55">
         <v>42168</v>
       </c>
@@ -4488,7 +6158,7 @@
       <c r="L40" s="76"/>
       <c r="M40" s="77"/>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="55">
         <v>42169</v>
       </c>
@@ -4520,7 +6190,7 @@
       <c r="L41" s="76"/>
       <c r="M41" s="77"/>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="55">
         <v>42170</v>
       </c>
@@ -4552,7 +6222,7 @@
       <c r="L42" s="76"/>
       <c r="M42" s="77"/>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="55">
         <v>42171</v>
       </c>
@@ -4584,7 +6254,7 @@
       <c r="L43" s="76"/>
       <c r="M43" s="77"/>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="55">
         <v>42172</v>
       </c>
@@ -4616,7 +6286,7 @@
       <c r="L44" s="76"/>
       <c r="M44" s="77"/>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="55">
         <v>42173</v>
       </c>
@@ -4648,7 +6318,7 @@
       <c r="L45" s="76"/>
       <c r="M45" s="77"/>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="55">
         <v>42174</v>
       </c>
@@ -4680,7 +6350,7 @@
       <c r="L46" s="76"/>
       <c r="M46" s="77"/>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="55">
         <v>42175</v>
       </c>
@@ -4712,7 +6382,7 @@
       <c r="L47" s="76"/>
       <c r="M47" s="77"/>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="55">
         <v>42176</v>
       </c>
@@ -4744,7 +6414,7 @@
       <c r="L48" s="76"/>
       <c r="M48" s="77"/>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="55">
         <v>42177</v>
       </c>
@@ -4776,7 +6446,7 @@
       <c r="L49" s="76"/>
       <c r="M49" s="77"/>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="55">
         <v>42178</v>
       </c>
@@ -4806,7 +6476,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="55">
         <v>42179</v>
       </c>
@@ -4836,7 +6506,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="55">
         <v>42180</v>
       </c>
@@ -4866,7 +6536,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="55"/>
       <c r="B53" s="22"/>
       <c r="C53" s="22"/>
@@ -4893,25 +6563,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I87"/>
   <sheetViews>
     <sheetView topLeftCell="A56" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H84" sqref="H84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="25.69921875" customWidth="1"/>
-    <col min="3" max="3" width="40.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.19921875" customWidth="1"/>
-    <col min="6" max="6" width="9.19921875" customWidth="1"/>
-    <col min="7" max="7" width="9.3984375" style="54" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.69921875" style="54" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.75" customWidth="1"/>
+    <col min="3" max="3" width="40.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.25" customWidth="1"/>
+    <col min="6" max="6" width="9.25" customWidth="1"/>
+    <col min="7" max="7" width="9.375" style="54" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.75" style="54" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="34.799999999999997">
+    <row r="1" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A1" s="65" t="s">
         <v>243</v>
       </c>
@@ -4940,7 +6610,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="59" t="s">
         <v>235</v>
       </c>
@@ -4967,7 +6637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="58"/>
       <c r="B3" s="58"/>
       <c r="C3" s="22" t="s">
@@ -4990,7 +6660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="58"/>
       <c r="B4" s="58"/>
       <c r="C4" s="22" t="s">
@@ -5013,7 +6683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="58"/>
       <c r="B5" s="58"/>
       <c r="C5" s="22" t="s">
@@ -5036,7 +6706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="58"/>
       <c r="B6" s="57"/>
       <c r="C6" s="22" t="s">
@@ -5059,7 +6729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="58"/>
       <c r="B7" s="59" t="s">
         <v>228</v>
@@ -5086,7 +6756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="58"/>
       <c r="B8" s="58"/>
       <c r="C8" s="57"/>
@@ -5109,7 +6779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="58"/>
       <c r="B9" s="58"/>
       <c r="C9" s="56" t="s">
@@ -5132,7 +6802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="58"/>
       <c r="B10" s="58"/>
       <c r="C10" s="56" t="s">
@@ -5155,7 +6825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="58"/>
       <c r="B11" s="58"/>
       <c r="C11" s="56" t="s">
@@ -5178,7 +6848,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="58"/>
       <c r="B12" s="58"/>
       <c r="C12" s="56" t="s">
@@ -5201,7 +6871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="58"/>
       <c r="B13" s="58"/>
       <c r="C13" s="56" t="s">
@@ -5224,7 +6894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="58"/>
       <c r="B14" s="58"/>
       <c r="C14" s="59" t="s">
@@ -5249,7 +6919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="58"/>
       <c r="B15" s="58"/>
       <c r="C15" s="58"/>
@@ -5272,7 +6942,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="58"/>
       <c r="B16" s="57"/>
       <c r="C16" s="57"/>
@@ -5295,7 +6965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="58"/>
       <c r="B17" s="59" t="s">
         <v>214</v>
@@ -5322,7 +6992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="58"/>
       <c r="B18" s="58"/>
       <c r="C18" s="61"/>
@@ -5345,7 +7015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="58"/>
       <c r="B19" s="58"/>
       <c r="C19" s="57"/>
@@ -5368,7 +7038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="58"/>
       <c r="B20" s="58"/>
       <c r="C20" s="60" t="s">
@@ -5393,7 +7063,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="58"/>
       <c r="B21" s="58"/>
       <c r="C21" s="58"/>
@@ -5416,7 +7086,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="58"/>
       <c r="B22" s="58"/>
       <c r="C22" s="57"/>
@@ -5439,7 +7109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="58"/>
       <c r="B23" s="58"/>
       <c r="C23" s="59" t="s">
@@ -5464,7 +7134,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="58"/>
       <c r="B24" s="57"/>
       <c r="C24" s="57"/>
@@ -5487,7 +7157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="58"/>
       <c r="B25" s="59" t="s">
         <v>202</v>
@@ -5514,7 +7184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="58"/>
       <c r="B26" s="58"/>
       <c r="C26" s="58"/>
@@ -5537,7 +7207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="58"/>
       <c r="B27" s="58"/>
       <c r="C27" s="57"/>
@@ -5560,7 +7230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="58"/>
       <c r="B28" s="58"/>
       <c r="C28" s="59" t="s">
@@ -5585,7 +7255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="58"/>
       <c r="B29" s="58"/>
       <c r="C29" s="57"/>
@@ -5608,7 +7278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="58"/>
       <c r="B30" s="58"/>
       <c r="C30" s="59" t="s">
@@ -5633,7 +7303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="58"/>
       <c r="B31" s="58"/>
       <c r="C31" s="57"/>
@@ -5656,7 +7326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="58"/>
       <c r="B32" s="58"/>
       <c r="C32" s="59" t="s">
@@ -5681,7 +7351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="58"/>
       <c r="B33" s="58"/>
       <c r="C33" s="58"/>
@@ -5704,7 +7374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="58"/>
       <c r="B34" s="58"/>
       <c r="C34" s="58"/>
@@ -5727,7 +7397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="58"/>
       <c r="B35" s="58"/>
       <c r="C35" s="57"/>
@@ -5750,7 +7420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="58"/>
       <c r="B36" s="58"/>
       <c r="C36" s="59" t="s">
@@ -5775,7 +7445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="58"/>
       <c r="B37" s="58"/>
       <c r="C37" s="58"/>
@@ -5798,7 +7468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="58"/>
       <c r="B38" s="58"/>
       <c r="C38" s="58"/>
@@ -5821,7 +7491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="58"/>
       <c r="B39" s="58"/>
       <c r="C39" s="58"/>
@@ -5844,7 +7514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="58"/>
       <c r="B40" s="58"/>
       <c r="C40" s="57"/>
@@ -5867,7 +7537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="58"/>
       <c r="B41" s="58"/>
       <c r="C41" s="59" t="s">
@@ -5892,7 +7562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="58"/>
       <c r="B42" s="58"/>
       <c r="C42" s="58"/>
@@ -5915,7 +7585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="58"/>
       <c r="B43" s="58"/>
       <c r="C43" s="58"/>
@@ -5938,7 +7608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="58"/>
       <c r="B44" s="58"/>
       <c r="C44" s="58"/>
@@ -5961,7 +7631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="58"/>
       <c r="B45" s="58"/>
       <c r="C45" s="57"/>
@@ -5984,7 +7654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="58"/>
       <c r="B46" s="58"/>
       <c r="C46" s="59" t="s">
@@ -6009,7 +7679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="58"/>
       <c r="B47" s="58"/>
       <c r="C47" s="58"/>
@@ -6032,7 +7702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="58"/>
       <c r="B48" s="58"/>
       <c r="C48" s="58"/>
@@ -6055,7 +7725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="58"/>
       <c r="B49" s="58"/>
       <c r="C49" s="58"/>
@@ -6078,7 +7748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="58"/>
       <c r="B50" s="58"/>
       <c r="C50" s="57"/>
@@ -6101,7 +7771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="58"/>
       <c r="B51" s="58"/>
       <c r="C51" s="59" t="s">
@@ -6126,7 +7796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="58"/>
       <c r="B52" s="58"/>
       <c r="C52" s="58"/>
@@ -6149,7 +7819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="58"/>
       <c r="B53" s="58"/>
       <c r="C53" s="58"/>
@@ -6172,7 +7842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="58"/>
       <c r="B54" s="58"/>
       <c r="C54" s="58"/>
@@ -6195,7 +7865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="58"/>
       <c r="B55" s="58"/>
       <c r="C55" s="58"/>
@@ -6218,7 +7888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="58"/>
       <c r="B56" s="58"/>
       <c r="C56" s="57"/>
@@ -6241,7 +7911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="58"/>
       <c r="B57" s="58"/>
       <c r="C57" s="59" t="s">
@@ -6266,7 +7936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="58"/>
       <c r="B58" s="58"/>
       <c r="C58" s="58"/>
@@ -6289,7 +7959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="58"/>
       <c r="B59" s="58"/>
       <c r="C59" s="57"/>
@@ -6312,7 +7982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="58"/>
       <c r="B60" s="58"/>
       <c r="C60" s="59" t="s">
@@ -6337,7 +8007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="58"/>
       <c r="B61" s="58"/>
       <c r="C61" s="58"/>
@@ -6360,7 +8030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="58"/>
       <c r="B62" s="58"/>
       <c r="C62" s="58"/>
@@ -6383,7 +8053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="58"/>
       <c r="B63" s="58"/>
       <c r="C63" s="57"/>
@@ -6406,7 +8076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="58"/>
       <c r="B64" s="58"/>
       <c r="C64" s="59" t="s">
@@ -6431,7 +8101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="58"/>
       <c r="B65" s="58"/>
       <c r="C65" s="58"/>
@@ -6454,7 +8124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="58"/>
       <c r="B66" s="58"/>
       <c r="C66" s="58"/>
@@ -6477,7 +8147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="58"/>
       <c r="B67" s="58"/>
       <c r="C67" s="58"/>
@@ -6500,7 +8170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="58"/>
       <c r="B68" s="58"/>
       <c r="C68" s="58"/>
@@ -6523,7 +8193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="58"/>
       <c r="B69" s="58"/>
       <c r="C69" s="58"/>
@@ -6546,7 +8216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="58"/>
       <c r="B70" s="58"/>
       <c r="C70" s="57"/>
@@ -6569,7 +8239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="58"/>
       <c r="B71" s="58"/>
       <c r="C71" s="59" t="s">
@@ -6594,7 +8264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="58"/>
       <c r="B72" s="58"/>
       <c r="C72" s="58" t="s">
@@ -6619,7 +8289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="58"/>
       <c r="B73" s="58"/>
       <c r="C73" s="58"/>
@@ -6642,7 +8312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="58"/>
       <c r="B74" s="58"/>
       <c r="C74" s="57"/>
@@ -6665,7 +8335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="58"/>
       <c r="B75" s="58"/>
       <c r="C75" s="59" t="s">
@@ -6690,7 +8360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="58"/>
       <c r="B76" s="58"/>
       <c r="C76" s="58"/>
@@ -6713,7 +8383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="58"/>
       <c r="B77" s="58"/>
       <c r="C77" s="58"/>
@@ -6736,7 +8406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="58"/>
       <c r="B78" s="58"/>
       <c r="C78" s="58"/>
@@ -6759,7 +8429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="72"/>
       <c r="B79" s="74" t="s">
         <v>291</v>
@@ -6784,7 +8454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="72"/>
       <c r="B80" s="72"/>
       <c r="C80" s="58"/>
@@ -6807,7 +8477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="72"/>
       <c r="B81" s="72"/>
       <c r="C81" s="58"/>
@@ -6830,7 +8500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="73"/>
       <c r="B82" s="73"/>
       <c r="C82" s="57"/>
@@ -6853,7 +8523,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="72"/>
       <c r="B83" s="74" t="s">
         <v>300</v>
@@ -6880,7 +8550,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="72"/>
       <c r="B84" s="72"/>
       <c r="C84" s="58"/>
@@ -6903,7 +8573,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="74"/>
       <c r="B85" s="74"/>
       <c r="C85" s="59" t="s">
@@ -6928,7 +8598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="73"/>
       <c r="B86" s="73"/>
       <c r="C86" s="57"/>
@@ -6951,7 +8621,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D87" s="75" t="s">
         <v>299</v>
       </c>
@@ -6968,40 +8638,40 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:Y159"/>
   <sheetViews>
     <sheetView topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I68" sqref="I68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="4" width="19.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.69921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="52.5" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.375" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="56.09765625" style="30" customWidth="1"/>
+    <col min="14" max="14" width="8.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="56.125" style="30" customWidth="1"/>
     <col min="18" max="18" width="80.5" hidden="1" customWidth="1"/>
-    <col min="19" max="24" width="2.59765625" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="3.09765625" hidden="1" customWidth="1"/>
+    <col min="19" max="24" width="2.625" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="3.125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:25">
+    <row r="1" spans="3:25" x14ac:dyDescent="0.3">
       <c r="R1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="3:25">
+    <row r="3" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C3" s="87" t="s">
         <v>36</v>
       </c>
@@ -7037,7 +8707,7 @@
       </c>
       <c r="R3" s="12"/>
     </row>
-    <row r="4" spans="3:25">
+    <row r="4" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C4" s="88"/>
       <c r="D4" s="88"/>
       <c r="E4" s="88"/>
@@ -7090,7 +8760,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="3:25" ht="19.2" customHeight="1">
+    <row r="5" spans="3:25" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="10">
         <v>42131.75</v>
       </c>
@@ -7165,7 +8835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="3:25">
+    <row r="6" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C6" s="79">
         <v>42134</v>
       </c>
@@ -7236,7 +8906,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="3:25">
+    <row r="7" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C7" s="10">
         <v>42134.75</v>
       </c>
@@ -7311,7 +8981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:25">
+    <row r="8" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C8" s="79"/>
       <c r="D8" s="79"/>
       <c r="E8" s="79"/>
@@ -7380,7 +9050,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="3:25">
+    <row r="9" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C9" s="91">
         <v>42136.75</v>
       </c>
@@ -7455,7 +9125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="3:25">
+    <row r="10" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C10" s="92"/>
       <c r="D10" s="92"/>
       <c r="E10" s="95"/>
@@ -7522,7 +9192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="3:25">
+    <row r="11" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C11" s="92"/>
       <c r="D11" s="92"/>
       <c r="E11" s="95"/>
@@ -7589,7 +9259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:25">
+    <row r="12" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C12" s="92"/>
       <c r="D12" s="92"/>
       <c r="E12" s="95"/>
@@ -7656,7 +9326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="3:25">
+    <row r="13" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C13" s="92"/>
       <c r="D13" s="92"/>
       <c r="E13" s="95"/>
@@ -7723,7 +9393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="3:25">
+    <row r="14" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C14" s="92"/>
       <c r="D14" s="92"/>
       <c r="E14" s="95"/>
@@ -7790,7 +9460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:25">
+    <row r="15" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C15" s="92"/>
       <c r="D15" s="92"/>
       <c r="E15" s="95"/>
@@ -7857,7 +9527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="3:25">
+    <row r="16" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C16" s="93"/>
       <c r="D16" s="93"/>
       <c r="E16" s="96"/>
@@ -7924,7 +9594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:25">
+    <row r="17" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C17" s="79" t="s">
         <v>122</v>
       </c>
@@ -7995,7 +9665,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="3:25">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C18" s="10">
         <v>42137.75</v>
       </c>
@@ -8072,7 +9742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:25">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C19" s="79"/>
       <c r="D19" s="79"/>
       <c r="E19" s="79"/>
@@ -8141,7 +9811,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="3:25">
+    <row r="20" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C20" s="91">
         <v>42138.75</v>
       </c>
@@ -8216,7 +9886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="3:25">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C21" s="92"/>
       <c r="D21" s="92"/>
       <c r="E21" s="95"/>
@@ -8283,7 +9953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="3:25">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C22" s="92"/>
       <c r="D22" s="92"/>
       <c r="E22" s="95"/>
@@ -8350,7 +10020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:25">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C23" s="93"/>
       <c r="D23" s="93"/>
       <c r="E23" s="96"/>
@@ -8417,7 +10087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="3:25">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C24" s="79"/>
       <c r="D24" s="79"/>
       <c r="E24" s="79"/>
@@ -8486,7 +10156,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="3:25">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C25" s="10">
         <v>42142.75</v>
       </c>
@@ -8563,7 +10233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="3:25">
+    <row r="26" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C26" s="79"/>
       <c r="D26" s="79"/>
       <c r="E26" s="79"/>
@@ -8632,7 +10302,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="3:25">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C27" s="91">
         <v>42144.708333333336</v>
       </c>
@@ -8709,7 +10379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="3:25">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C28" s="92"/>
       <c r="D28" s="92"/>
       <c r="E28" s="95"/>
@@ -8776,7 +10446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:25">
+    <row r="29" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C29" s="92"/>
       <c r="D29" s="92"/>
       <c r="E29" s="95"/>
@@ -8843,7 +10513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="3:25">
+    <row r="30" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C30" s="93"/>
       <c r="D30" s="93"/>
       <c r="E30" s="96"/>
@@ -8910,7 +10580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="3:25">
+    <row r="31" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C31" s="79"/>
       <c r="D31" s="79"/>
       <c r="E31" s="79"/>
@@ -8979,7 +10649,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="3:25">
+    <row r="32" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C32" s="18">
         <v>42148.854166666664</v>
       </c>
@@ -9054,7 +10724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:25">
+    <row r="33" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C33" s="79"/>
       <c r="D33" s="79"/>
       <c r="E33" s="79"/>
@@ -9123,7 +10793,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="3:25">
+    <row r="34" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C34" s="18">
         <v>42149.604166666664</v>
       </c>
@@ -9200,7 +10870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="3:25">
+    <row r="35" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C35" s="18">
         <v>42149.833333333336</v>
       </c>
@@ -9273,7 +10943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="3:25">
+    <row r="36" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C36" s="19">
         <v>42149.958333333336</v>
       </c>
@@ -9344,7 +11014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="3:25">
+    <row r="37" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C37" s="79"/>
       <c r="D37" s="79"/>
       <c r="E37" s="79"/>
@@ -9413,7 +11083,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="3:25">
+    <row r="38" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C38" s="21">
         <v>42151.625</v>
       </c>
@@ -9494,7 +11164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="3:25">
+    <row r="39" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C39" s="79"/>
       <c r="D39" s="79"/>
       <c r="E39" s="79"/>
@@ -9563,7 +11233,7 @@
         <v>3.9999999999999996</v>
       </c>
     </row>
-    <row r="40" spans="3:25">
+    <row r="40" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C40" s="25">
         <v>42152.833333333336</v>
       </c>
@@ -9642,7 +11312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="3:25">
+    <row r="41" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C41" s="79"/>
       <c r="D41" s="79"/>
       <c r="E41" s="79"/>
@@ -9711,7 +11381,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="3:25">
+    <row r="42" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C42" s="35">
         <v>42152.583333333336</v>
       </c>
@@ -9788,7 +11458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="3:25">
+    <row r="43" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C43" s="35">
         <v>42152.833333333336</v>
       </c>
@@ -9865,7 +11535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="3:25">
+    <row r="44" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C44" s="79"/>
       <c r="D44" s="79"/>
       <c r="E44" s="79"/>
@@ -9934,7 +11604,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="3:25" ht="31.2">
+    <row r="45" spans="3:25" ht="27" x14ac:dyDescent="0.3">
       <c r="C45" s="35">
         <v>42155.375</v>
       </c>
@@ -10011,7 +11681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="3:25">
+    <row r="46" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C46" s="35">
         <v>42155.375</v>
       </c>
@@ -10088,7 +11758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="3:25" ht="31.2">
+    <row r="47" spans="3:25" ht="27" x14ac:dyDescent="0.3">
       <c r="C47" s="35">
         <v>42155.375</v>
       </c>
@@ -10165,7 +11835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="3:25">
+    <row r="48" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C48" s="35">
         <v>42155.375</v>
       </c>
@@ -10242,7 +11912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:25">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C49" s="35">
         <v>42155.708333333336</v>
       </c>
@@ -10319,7 +11989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="3:25">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C50" s="38">
         <v>42155.8125</v>
       </c>
@@ -10396,7 +12066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="3:25" s="46" customFormat="1">
+    <row r="51" spans="3:25" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="100">
         <v>42155.854166666664</v>
       </c>
@@ -10471,7 +12141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="3:25" s="46" customFormat="1">
+    <row r="52" spans="3:25" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="101"/>
       <c r="D52" s="101"/>
       <c r="E52" s="39" t="s">
@@ -10538,7 +12208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="3:25" s="46" customFormat="1">
+    <row r="53" spans="3:25" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="101"/>
       <c r="D53" s="101"/>
       <c r="E53" s="39" t="s">
@@ -10605,7 +12275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="3:25" s="46" customFormat="1">
+    <row r="54" spans="3:25" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="102"/>
       <c r="D54" s="102"/>
       <c r="E54" s="39" t="s">
@@ -10672,7 +12342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="3:25">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C55" s="79"/>
       <c r="D55" s="79"/>
       <c r="E55" s="79"/>
@@ -10741,7 +12411,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="56" spans="3:25">
+    <row r="56" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C56" s="38">
         <v>42156.8125</v>
       </c>
@@ -10818,7 +12488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="3:25">
+    <row r="57" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C57" s="38">
         <v>42156.854166666664</v>
       </c>
@@ -10895,7 +12565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="3:25">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C58" s="79"/>
       <c r="D58" s="79"/>
       <c r="E58" s="79"/>
@@ -10964,7 +12634,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="3:25">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C59" s="41">
         <v>42157.8125</v>
       </c>
@@ -11041,7 +12711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="3:25">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C60" s="79"/>
       <c r="D60" s="79"/>
       <c r="E60" s="79"/>
@@ -11110,7 +12780,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="3:25">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C61" s="41">
         <v>42158.520833333336</v>
       </c>
@@ -11191,7 +12861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="3:25">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C62" s="79"/>
       <c r="D62" s="79"/>
       <c r="E62" s="79"/>
@@ -11260,7 +12930,7 @@
         <v>3.9999999999999996</v>
       </c>
     </row>
-    <row r="63" spans="3:25">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C63" s="41">
         <v>42160.666666666664</v>
       </c>
@@ -11337,7 +13007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="3:25">
+    <row r="64" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C64" s="79"/>
       <c r="D64" s="79"/>
       <c r="E64" s="79"/>
@@ -11406,7 +13076,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="3:25">
+    <row r="65" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C65" s="41">
         <v>42162.375</v>
       </c>
@@ -11481,7 +13151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="3:25">
+    <row r="66" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C66" s="41">
         <v>42162.375</v>
       </c>
@@ -11556,7 +13226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="3:25">
+    <row r="67" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C67" s="41">
         <v>42162.375</v>
       </c>
@@ -11631,7 +13301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="3:25">
+    <row r="68" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C68" s="41">
         <v>42162.375</v>
       </c>
@@ -11708,7 +13378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="3:25">
+    <row r="69" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C69" s="41">
         <v>42162.375</v>
       </c>
@@ -11783,7 +13453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="3:25">
+    <row r="70" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C70" s="41">
         <v>42162.375</v>
       </c>
@@ -11858,7 +13528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="3:25">
+    <row r="71" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C71" s="79"/>
       <c r="D71" s="79"/>
       <c r="E71" s="79"/>
@@ -11927,7 +13597,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="72" spans="3:25" ht="31.2">
+    <row r="72" spans="3:25" ht="27" x14ac:dyDescent="0.3">
       <c r="C72" s="41">
         <v>42163.583333333336</v>
       </c>
@@ -12004,7 +13674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="3:25">
+    <row r="73" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C73" s="41">
         <v>42163.666666666664</v>
       </c>
@@ -12081,7 +13751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="3:25">
+    <row r="74" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C74" s="79"/>
       <c r="D74" s="79"/>
       <c r="E74" s="79"/>
@@ -12150,7 +13820,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="75" spans="3:25">
+    <row r="75" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C75" s="50">
         <v>42163.791666666664</v>
       </c>
@@ -12227,7 +13897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="3:25">
+    <row r="76" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C76" s="50">
         <v>42163.791666666664</v>
       </c>
@@ -12304,7 +13974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="3:25">
+    <row r="77" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C77" s="50">
         <v>42163.791666666664</v>
       </c>
@@ -12381,7 +14051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="3:25">
+    <row r="78" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C78" s="50">
         <v>42163.791666666664</v>
       </c>
@@ -12458,7 +14128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="3:25">
+    <row r="79" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C79" s="50">
         <v>42163.791666666664</v>
       </c>
@@ -12535,7 +14205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="3:25">
+    <row r="80" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C80" s="50">
         <v>42163.791666666664</v>
       </c>
@@ -12612,7 +14282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="3:25">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C81" s="79"/>
       <c r="D81" s="79"/>
       <c r="E81" s="79"/>
@@ -12681,7 +14351,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="3:25">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C82" s="50">
         <v>42164.583333333336</v>
       </c>
@@ -12756,7 +14426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="3:25">
+    <row r="83" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C83" s="50">
         <v>42164.791666666664</v>
       </c>
@@ -12833,7 +14503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="3:25">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C84" s="79"/>
       <c r="D84" s="79"/>
       <c r="E84" s="79"/>
@@ -12902,7 +14572,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="85" spans="3:25">
+    <row r="85" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C85" s="53">
         <v>42165.520833333336</v>
       </c>
@@ -12983,7 +14653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="3:25">
+    <row r="86" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C86" s="79"/>
       <c r="D86" s="79"/>
       <c r="E86" s="79"/>
@@ -13052,7 +14722,7 @@
         <v>3.9999999999999996</v>
       </c>
     </row>
-    <row r="87" spans="3:25">
+    <row r="87" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C87" s="53">
         <v>42165.625</v>
       </c>
@@ -13129,7 +14799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="3:25">
+    <row r="88" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C88" s="79"/>
       <c r="D88" s="79"/>
       <c r="E88" s="79"/>
@@ -13198,7 +14868,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="3:25">
+    <row r="89" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C89" s="53">
         <v>42168.375</v>
       </c>
@@ -13275,7 +14945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="3:25">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C90" s="53">
         <v>42168.375</v>
       </c>
@@ -13352,7 +15022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="3:25">
+    <row r="91" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C91" s="53">
         <v>42168.375</v>
       </c>
@@ -13429,7 +15099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="3:25">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C92" s="53">
         <v>42168.375</v>
       </c>
@@ -13506,7 +15176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="3:25">
+    <row r="93" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C93" s="53">
         <v>42168.375</v>
       </c>
@@ -13583,7 +15253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="3:25">
+    <row r="94" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C94" s="53">
         <v>42168.375</v>
       </c>
@@ -13660,7 +15330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="3:25">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C95" s="79"/>
       <c r="D95" s="79"/>
       <c r="E95" s="79"/>
@@ -13729,7 +15399,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="96" spans="3:25">
+    <row r="96" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C96" s="53">
         <v>42169.375</v>
       </c>
@@ -13806,7 +15476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="3:25">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C97" s="53">
         <v>42169.375</v>
       </c>
@@ -13883,7 +15553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="3:25">
+    <row r="98" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C98" s="53">
         <v>42169.375</v>
       </c>
@@ -13960,7 +15630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="3:25">
+    <row r="99" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C99" s="53">
         <v>42169.375</v>
       </c>
@@ -14037,7 +15707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="3:25">
+    <row r="100" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C100" s="53">
         <v>42169.375</v>
       </c>
@@ -14114,7 +15784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="3:25">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C101" s="53">
         <v>42169.375</v>
       </c>
@@ -14191,7 +15861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="3:25">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C102" s="79"/>
       <c r="D102" s="79"/>
       <c r="E102" s="79"/>
@@ -14260,7 +15930,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="103" spans="3:25">
+    <row r="103" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C103" s="53">
         <v>42170.583333333336</v>
       </c>
@@ -14337,7 +16007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="3:25">
+    <row r="104" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C104" s="53">
         <v>42170.583333333336</v>
       </c>
@@ -14414,7 +16084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="3:25">
+    <row r="105" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C105" s="53">
         <v>42170.583333333336</v>
       </c>
@@ -14491,7 +16161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="3:25">
+    <row r="106" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C106" s="53">
         <v>42170.583333333336</v>
       </c>
@@ -14568,7 +16238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="3:25">
+    <row r="107" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C107" s="53">
         <v>42170.583333333336</v>
       </c>
@@ -14645,7 +16315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="3:25">
+    <row r="108" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C108" s="53">
         <v>42170.583333333336</v>
       </c>
@@ -14722,7 +16392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="3:25">
+    <row r="109" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C109" s="79"/>
       <c r="D109" s="79"/>
       <c r="E109" s="79"/>
@@ -14791,7 +16461,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="110" spans="3:25">
+    <row r="110" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C110" s="53">
         <v>42171.833333333336</v>
       </c>
@@ -14868,7 +16538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="3:25">
+    <row r="111" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C111" s="79"/>
       <c r="D111" s="79"/>
       <c r="E111" s="79"/>
@@ -14937,7 +16607,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="112" spans="3:25">
+    <row r="112" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C112" s="68">
         <v>42172.520833333336</v>
       </c>
@@ -15018,7 +16688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="3:25">
+    <row r="113" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C113" s="79"/>
       <c r="D113" s="79"/>
       <c r="E113" s="79"/>
@@ -15087,7 +16757,7 @@
         <v>3.9999999999999996</v>
       </c>
     </row>
-    <row r="114" spans="3:25">
+    <row r="114" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C114" s="68">
         <v>42903.583333333336</v>
       </c>
@@ -15164,7 +16834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="3:25">
+    <row r="115" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C115" s="68">
         <v>42903.583333333336</v>
       </c>
@@ -15241,7 +16911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="3:25">
+    <row r="116" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C116" s="79"/>
       <c r="D116" s="79"/>
       <c r="E116" s="79"/>
@@ -15310,7 +16980,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="117" spans="3:25">
+    <row r="117" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C117" s="68">
         <v>42174.625</v>
       </c>
@@ -15385,7 +17055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="3:25">
+    <row r="118" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C118" s="68">
         <v>42174.833333333336</v>
       </c>
@@ -15462,7 +17132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="3:25">
+    <row r="119" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C119" s="68">
         <v>42174.833333333336</v>
       </c>
@@ -15539,7 +17209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="3:25">
+    <row r="120" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C120" s="68">
         <v>42174.833333333336</v>
       </c>
@@ -15616,7 +17286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="3:25">
+    <row r="121" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C121" s="68">
         <v>42174.833333333336</v>
       </c>
@@ -15693,7 +17363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="3:25">
+    <row r="122" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C122" s="68">
         <v>42174.833333333336</v>
       </c>
@@ -15770,7 +17440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="3:25">
+    <row r="123" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C123" s="68">
         <v>42174.833333333336</v>
       </c>
@@ -15847,7 +17517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="3:25">
+    <row r="124" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C124" s="79"/>
       <c r="D124" s="79"/>
       <c r="E124" s="79"/>
@@ -15916,7 +17586,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="125" spans="3:25">
+    <row r="125" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C125" s="68">
         <v>42175.583333333336</v>
       </c>
@@ -15993,7 +17663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="3:25">
+    <row r="126" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C126" s="68">
         <v>42175.583333333336</v>
       </c>
@@ -16070,7 +17740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="3:25">
+    <row r="127" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C127" s="79"/>
       <c r="D127" s="79"/>
       <c r="E127" s="79"/>
@@ -16139,7 +17809,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="128" spans="3:25">
+    <row r="128" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C128" s="68">
         <v>42176.791666666664</v>
       </c>
@@ -16216,7 +17886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="3:25">
+    <row r="129" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C129" s="68">
         <v>42176.791666666664</v>
       </c>
@@ -16293,7 +17963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="3:25">
+    <row r="130" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C130" s="79"/>
       <c r="D130" s="79"/>
       <c r="E130" s="79"/>
@@ -16362,7 +18032,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="131" spans="3:25">
+    <row r="131" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C131" s="68">
         <v>42177.833333333336</v>
       </c>
@@ -16439,7 +18109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="3:25">
+    <row r="132" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C132" s="79"/>
       <c r="D132" s="79"/>
       <c r="E132" s="79"/>
@@ -16508,7 +18178,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="133" spans="3:25">
+    <row r="133" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C133" s="68">
         <v>42178.666666666664</v>
       </c>
@@ -16585,7 +18255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="3:25">
+    <row r="134" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C134" s="68">
         <v>42178.666666666664</v>
       </c>
@@ -16662,7 +18332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="3:25">
+    <row r="135" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C135" s="79"/>
       <c r="D135" s="79"/>
       <c r="E135" s="79"/>
@@ -16731,7 +18401,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="136" spans="3:25">
+    <row r="136" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C136" s="70">
         <v>42179.520833333336</v>
       </c>
@@ -16806,7 +18476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="3:25">
+    <row r="137" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C137" s="70">
         <v>42179.604166666664</v>
       </c>
@@ -16883,7 +18553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="3:25">
+    <row r="138" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C138" s="70">
         <v>42179.8125</v>
       </c>
@@ -16960,7 +18630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="3:25">
+    <row r="139" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C139" s="79"/>
       <c r="D139" s="79"/>
       <c r="E139" s="79"/>
@@ -17029,7 +18699,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="140" spans="3:25">
+    <row r="140" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C140" s="70">
         <v>42180.625</v>
       </c>
@@ -17106,7 +18776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="3:25">
+    <row r="141" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C141" s="70">
         <v>42180.625</v>
       </c>
@@ -17183,7 +18853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="3:25">
+    <row r="142" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C142" s="70">
         <v>42180.791666666664</v>
       </c>
@@ -17258,7 +18928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="3:25">
+    <row r="143" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C143" s="70">
         <v>42180.791666666664</v>
       </c>
@@ -17335,7 +19005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="3:25">
+    <row r="144" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C144" s="79"/>
       <c r="D144" s="79"/>
       <c r="E144" s="79"/>
@@ -17404,7 +19074,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="145" spans="3:25">
+    <row r="145" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C145" s="70">
         <v>42181.583333333336</v>
       </c>
@@ -17481,7 +19151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="3:25">
+    <row r="146" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C146" s="70">
         <v>42181.583333333336</v>
       </c>
@@ -17558,7 +19228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="3:25">
+    <row r="147" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C147" s="70">
         <v>42181.791666666664</v>
       </c>
@@ -17635,7 +19305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="3:25">
+    <row r="148" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C148" s="70">
         <v>42181.791666666664</v>
       </c>
@@ -17710,7 +19380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="3:25">
+    <row r="149" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C149" s="79"/>
       <c r="D149" s="79"/>
       <c r="E149" s="79"/>
@@ -17779,7 +19449,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="150" spans="3:25">
+    <row r="150" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
@@ -17820,7 +19490,7 @@
       <c r="Q150" s="28"/>
       <c r="R150" s="12"/>
     </row>
-    <row r="151" spans="3:25">
+    <row r="151" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C151" s="14"/>
       <c r="D151" s="14"/>
       <c r="E151" s="14"/>
@@ -17838,7 +19508,7 @@
       <c r="Q151" s="29"/>
       <c r="R151" s="12"/>
     </row>
-    <row r="152" spans="3:25">
+    <row r="152" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C152" s="14"/>
       <c r="D152" s="14"/>
       <c r="E152" s="14"/>
@@ -17856,7 +19526,7 @@
       <c r="Q152" s="29"/>
       <c r="R152" s="12"/>
     </row>
-    <row r="153" spans="3:25">
+    <row r="153" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C153" s="14"/>
       <c r="D153" s="14"/>
       <c r="E153" s="14"/>
@@ -17874,7 +19544,7 @@
       <c r="Q153" s="29"/>
       <c r="R153" s="12"/>
     </row>
-    <row r="154" spans="3:25">
+    <row r="154" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C154" s="14"/>
       <c r="D154" s="14"/>
       <c r="E154" s="14"/>
@@ -17892,7 +19562,7 @@
       <c r="Q154" s="29"/>
       <c r="R154" s="12"/>
     </row>
-    <row r="155" spans="3:25">
+    <row r="155" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C155" s="14"/>
       <c r="D155" s="14"/>
       <c r="E155" s="14"/>
@@ -17910,7 +19580,7 @@
       <c r="Q155" s="29"/>
       <c r="R155" s="12"/>
     </row>
-    <row r="156" spans="3:25">
+    <row r="156" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C156" s="14"/>
       <c r="D156" s="14"/>
       <c r="E156" s="14"/>
@@ -17928,7 +19598,7 @@
       <c r="Q156" s="29"/>
       <c r="R156" s="12"/>
     </row>
-    <row r="157" spans="3:25">
+    <row r="157" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C157" s="14"/>
       <c r="D157" s="14"/>
       <c r="E157" s="14"/>
@@ -17946,7 +19616,7 @@
       <c r="Q157" s="29"/>
       <c r="R157" s="12"/>
     </row>
-    <row r="158" spans="3:25">
+    <row r="158" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C158" s="14"/>
       <c r="D158" s="14"/>
       <c r="E158" s="14"/>
@@ -17963,7 +19633,7 @@
       <c r="P158" s="14"/>
       <c r="Q158" s="29"/>
     </row>
-    <row r="159" spans="3:25">
+    <row r="159" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C159" s="14"/>
       <c r="D159" s="14"/>
       <c r="E159" s="14"/>
